--- a/Admin/Attendance/Attendance.xlsx
+++ b/Admin/Attendance/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cowea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1AB313-509B-4F61-8E32-46021455B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CCB58A-2FCE-48D4-8271-7B57DF0C6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Admin/Attendance/Attendance.xlsx
+++ b/Admin/Attendance/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cowea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CCB58A-2FCE-48D4-8271-7B57DF0C6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A417F5-2EAB-4B12-9D84-FB21C65031D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>TEAM MEETING</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>WEEK 13</t>
+  </si>
+  <si>
+    <t>WEEK 14</t>
+  </si>
+  <si>
+    <t>WEEK 15</t>
+  </si>
+  <si>
+    <t>Shane, Jaylee, Cameron, Ryan, Angelo, Chandler</t>
+  </si>
+  <si>
+    <t>WEEK 16</t>
   </si>
 </sst>
 </file>
@@ -442,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -618,7 +630,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -626,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -643,10 +655,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -656,13 +668,53 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
